--- a/Tomcat指南.xlsx
+++ b/Tomcat指南.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA70F48C-8C30-48E8-8862-7BD3372B6901}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{58B1D031-0A8A-4D2F-9482-94386E8A9EE1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,40 +113,89 @@
     </r>
   </si>
   <si>
+    <t>#设置虚拟机参数</t>
+  </si>
+  <si>
+    <t>JAVA_OPTS="-server -Xms512m -Xmx512m -Xss512K -XX:PermSize=128m -XX:MaxPermSize=256m"</t>
+  </si>
+  <si>
+    <t>5.修改配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改端口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改conf目录下的server.xml文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置防火墙规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export CATALINA_BASE=$CATALINA2_BASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export CATALINA_2_HOME=$CATALINA2_HOME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim catalina.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:%s/CATALINA_BASE/CATALINA2_BASE/g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:%s/CATALINA_HOME/CATALINA2_HOME/g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh startup.sh</t>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> sh shutdown.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Server port="8006" shutdown="SHUTDOWN"&gt;</t>
+  </si>
+  <si>
+    <t>8005 -&gt; 8006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;Connector port="8090" protocol="HTTP/1.1"</t>
+  </si>
+  <si>
+    <t>8080 -&gt; 8090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;Connector port="8010" protocol="AJP/1.3" redirectPort="8443" /&gt;</t>
+  </si>
+  <si>
+    <t>8009 -&gt;8010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t># self : add</t>
-  </si>
-  <si>
-    <t>#设置虚拟机参数</t>
-  </si>
-  <si>
-    <t>JAVA_OPTS="-server -Xms512m -Xmx512m -Xss512K -XX:PermSize=128m -XX:MaxPermSize=256m"</t>
-  </si>
-  <si>
-    <t>5.修改配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改端口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改conf目录下的server.xml文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置防火墙规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>export CATALINA_BASE=$CATALINA2_BASE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>export CATALINA_2_HOME=$CATALINA2_HOME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vim catalina.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,6 +231,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF4F4F4F"/>
         <rFont val="Arial"/>
@@ -200,6 +250,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF4F4F4F"/>
         <rFont val="Arial"/>
@@ -279,33 +330,6 @@
       </rPr>
       <t>CATALINA2_BASE</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:%s/CATALINA_BASE/CATALINA2_BASE/g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:%s/CATALINA_HOME/CATALINA2_HOME/g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bin目录下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh startup.sh</t>
-  </si>
-  <si>
-    <t>停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> sh shutdown.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +380,13 @@
       <sz val="11"/>
       <color rgb="FF4F4F4F"/>
       <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -721,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -826,12 +857,12 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.25">
@@ -841,60 +872,84 @@
     </row>
     <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -917,27 +972,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
